--- a/Output/Young_2001 Young 2001 OS DTIC_IFN parameters.xlsx
+++ b/Output/Young_2001 Young 2001 OS DTIC_IFN parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.70892943143692</v>
+        <v>-2.61515646363081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.395908632478748</v>
+        <v>0.320756770614934</v>
       </c>
       <c r="D2" t="n">
         <v>137.24645364594</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242382907798554</v>
+        <v>0.213278475676705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219530970391322</v>
+        <v>0.172728878584829</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.89257104125165</v>
+        <v>1.85768941713106</v>
       </c>
       <c r="C2" t="n">
-        <v>0.410670123606949</v>
+        <v>0.336969112651298</v>
       </c>
       <c r="D2" t="n">
         <v>136.877615628963</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.987198951461175</v>
+        <v>-0.993295258875856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.173663665314817</v>
+        <v>0.157840161947571</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.94606176905585</v>
+        <v>-1.89524984654235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.208222229400172</v>
+        <v>0.220566185666429</v>
       </c>
       <c r="D2" t="n">
         <v>136.952367028421</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.74164222910467</v>
+        <v>1.75319588941478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.353357713227375</v>
+        <v>0.328357094076466</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.50741289770736</v>
+        <v>-2.39640552258822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.318208850704761</v>
+        <v>0.274374733260961</v>
       </c>
       <c r="D2" t="n">
         <v>137.981272494951</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0248428547262417</v>
+        <v>0.0140410826723287</v>
       </c>
       <c r="C3" t="n">
-        <v>0.047688533074933</v>
+        <v>0.0322726576179848</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.156743645271192</v>
+        <v>0.102884905895322</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0662510125415888</v>
+        <v>-0.0348334841073863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0662510125415888</v>
+        <v>-0.0348334841073863</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0481938469609553</v>
+        <v>0.0298352654971725</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.168649950423347</v>
+        <v>0.113548182881003</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0611261870872031</v>
+        <v>-0.0414908144906914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0611261870872031</v>
+        <v>-0.0414908144906914</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0301590686505767</v>
+        <v>0.0249135167236354</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0433564968163777</v>
+        <v>0.0486494422594377</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00783054883103203</v>
+        <v>0.00702714895855935</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00783054883103203</v>
+        <v>0.00702714895855935</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12486167349728</v>
+        <v>0.107818381230341</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.101256872666845</v>
+        <v>0.0752814942520235</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0101235506567224</v>
+        <v>-0.00475935260339732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0101235506567224</v>
+        <v>-0.00475935260339732</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00227419618683898</v>
+        <v>0.00104152442972767</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Young_2001 Young 2001 OS DTIC_IFN parameters.xlsx
+++ b/Output/Young_2001 Young 2001 OS DTIC_IFN parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.61515646363081</v>
+        <v>-2.70892943143692</v>
       </c>
       <c r="C2" t="n">
-        <v>0.320756770614934</v>
+        <v>0.395908632478748</v>
       </c>
       <c r="D2" t="n">
         <v>137.24645364594</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.213278475676705</v>
+        <v>0.242382907798554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.172728878584829</v>
+        <v>0.219530970391322</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.85768941713106</v>
+        <v>1.89257104125165</v>
       </c>
       <c r="C2" t="n">
-        <v>0.336969112651298</v>
+        <v>0.410670123606949</v>
       </c>
       <c r="D2" t="n">
         <v>136.877615628963</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.993295258875856</v>
+        <v>-0.987198951461175</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157840161947571</v>
+        <v>0.173663665314817</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.89524984654235</v>
+        <v>-1.94606176905585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.220566185666429</v>
+        <v>0.208222229400172</v>
       </c>
       <c r="D2" t="n">
         <v>136.952367028421</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.75319588941478</v>
+        <v>0.536281630291043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.328357094076466</v>
+        <v>0.18904560480009</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.39640552258822</v>
+        <v>-2.50741289770736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.274374733260961</v>
+        <v>0.318208850704761</v>
       </c>
       <c r="D2" t="n">
         <v>137.981272494951</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0140410826723287</v>
+        <v>0.0248428547262417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0322726576179848</v>
+        <v>0.047688533074933</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.102884905895322</v>
+        <v>0.156743645271192</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0348334841073863</v>
+        <v>-0.0662510125415888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0348334841073863</v>
+        <v>-0.0662510125415888</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0298352654971725</v>
+        <v>0.0481938469609553</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.113548182881003</v>
+        <v>0.168649950423347</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0414908144906914</v>
+        <v>-0.0611261870872031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0414908144906914</v>
+        <v>-0.0611261870872031</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0249135167236354</v>
+        <v>0.0301590686505767</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0486494422594377</v>
+        <v>0.0433564968163777</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00702714895855935</v>
+        <v>-0.00355768253319537</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00702714895855935</v>
+        <v>-0.00355768253319537</v>
       </c>
       <c r="B3" t="n">
-        <v>0.107818381230341</v>
+        <v>0.0357382406942316</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0752814942520235</v>
+        <v>0.101256872666845</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00475935260339732</v>
+        <v>-0.0101235506567224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00475935260339732</v>
+        <v>-0.0101235506567224</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00104152442972767</v>
+        <v>0.00227419618683898</v>
       </c>
     </row>
   </sheetData>
